--- a/biology/Zoologie/Hyphessobrycon_eques/Hyphessobrycon_eques.xlsx
+++ b/biology/Zoologie/Hyphessobrycon_eques/Hyphessobrycon_eques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Statut de conservation UICN
 LC : Préoccupation mineure
@@ -513,7 +525,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire des régions de Madère et Guaporé, de l'Amazone et au Paraguay.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson grégaire des eaux calmes à la végétation souvent riche d'Amazonie. Il est fréquent dans les eaux noires.
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit poisson au corps trapu mesurant 4 cm en moyenne. Une tache noire en forme de virgule se trouve derrière l'opercule. Sa livrée varie entre le marron et le orange avec des reflets jaunes, sa nageoire dorsale est noire.
 Les nageoires dorsale et anale peuvent comporter un liseré blanc. La caudale est rouge brique et la nageoire adipeuse est transparente.
@@ -609,7 +627,9 @@
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
